--- a/Data/in/lkup_files/Adapt_lkup.xlsx
+++ b/Data/in/lkup_files/Adapt_lkup.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kholsman/Documents/GitHub/WKCLIMAD/Data/in/lkup_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0EBA2-8F97-6644-8C8E-86DC7096E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41794761-DD20-6E40-A7D4-891CFD7BB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="2100" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{5AEE8D1D-4A65-DE47-8CD7-796E6BE72871}"/>
+    <workbookView xWindow="7580" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{5AEE8D1D-4A65-DE47-8CD7-796E6BE72871}"/>
   </bookViews>
   <sheets>
     <sheet name="Aquaculture" sheetId="1" r:id="rId1"/>
     <sheet name="Fisheries" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7F2698-3F43-304F-9414-200D29734116}">
   <dimension ref="A1:G387"/>
   <sheetViews>
-    <sheetView topLeftCell="G371" workbookViewId="0">
-      <selection activeCell="H371" sqref="H1:XFD1048576"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>A2&amp;": "&amp;B2</f>
+        <f t="shared" ref="C2:C37" si="0">A2&amp;": "&amp;B2</f>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2001,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>A3&amp;": "&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>A4&amp;": "&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2049,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>A5&amp;": "&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>A6&amp;": "&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>A7&amp;": "&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>A8&amp;": "&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2145,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>A9&amp;": "&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>A10&amp;": "&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2193,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>A11&amp;": "&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>A12&amp;": "&amp;B12</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>A13&amp;": "&amp;B13</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>A14&amp;": "&amp;B14</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2289,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>A15&amp;": "&amp;B15</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2313,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>A16&amp;": "&amp;B16</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>A17&amp;": "&amp;B17</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2361,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>A18&amp;": "&amp;B18</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2385,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>A19&amp;": "&amp;B19</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2409,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>A20&amp;": "&amp;B20</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -2433,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>A21&amp;": "&amp;B21</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2457,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>A22&amp;": "&amp;B22</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>A23&amp;": "&amp;B23</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>A24&amp;": "&amp;B24</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2529,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>A25&amp;": "&amp;B25</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>A26&amp;": "&amp;B26</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2577,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>A27&amp;": "&amp;B27</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2601,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>A28&amp;": "&amp;B28</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2625,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>A29&amp;": "&amp;B29</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2649,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>A30&amp;": "&amp;B30</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2673,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>A31&amp;": "&amp;B31</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2697,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>A32&amp;": "&amp;B32</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2721,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>A33&amp;": "&amp;B33</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>A34&amp;": "&amp;B34</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>A35&amp;": "&amp;B35</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2793,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>A36&amp;": "&amp;B36</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2817,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>A37&amp;": "&amp;B37</f>
+        <f t="shared" si="0"/>
         <v>Finfish Only:  Issues dealing with Feed</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:C54" si="0">A38&amp;": "&amp;B38</f>
+        <f t="shared" ref="C38:C54" si="1">A38&amp;": "&amp;B38</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2865,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2961,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2985,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3009,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3033,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -3057,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -3081,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -3129,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3153,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3177,7 +3177,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -3201,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3225,7 +3225,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3249,7 +3249,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ref="C55" si="1">A55&amp;": "&amp;B55</f>
+        <f t="shared" ref="C55" si="2">A55&amp;": "&amp;B55</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3273,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ref="C56" si="2">A56&amp;": "&amp;B56</f>
+        <f t="shared" ref="C56" si="3">A56&amp;": "&amp;B56</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3297,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:C59" si="3">A57&amp;": "&amp;B57</f>
+        <f t="shared" ref="C57:C59" si="4">A57&amp;": "&amp;B57</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3369,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ref="C60" si="4">A60&amp;": "&amp;B60</f>
+        <f t="shared" ref="C60" si="5">A60&amp;": "&amp;B60</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ref="C61:C62" si="5">A61&amp;": "&amp;B61</f>
+        <f t="shared" ref="C61:C62" si="6">A61&amp;": "&amp;B61</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -3417,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3441,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ref="C63:C66" si="6">A63&amp;": "&amp;B63</f>
+        <f t="shared" ref="C63:C66" si="7">A63&amp;": "&amp;B63</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -3465,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3489,7 +3489,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C68" si="7">A67&amp;": "&amp;B67</f>
+        <f t="shared" ref="C67:C68" si="8">A67&amp;": "&amp;B67</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -3561,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3585,7 +3585,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C70" si="8">A69&amp;": "&amp;B69</f>
+        <f t="shared" ref="C69:C70" si="9">A69&amp;": "&amp;B69</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -3633,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71" si="9">A71&amp;": "&amp;B71</f>
+        <f t="shared" ref="C71" si="10">A71&amp;": "&amp;B71</f>
         <v>Finfish and Shellfish:  HABs</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3681,7 +3681,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73" si="10">A73&amp;": "&amp;B73</f>
+        <f t="shared" ref="C73" si="11">A73&amp;": "&amp;B73</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3705,7 +3705,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ref="C74" si="11">A74&amp;": "&amp;B74</f>
+        <f t="shared" ref="C74" si="12">A74&amp;": "&amp;B74</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -3729,7 +3729,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ref="C75" si="12">A75&amp;": "&amp;B75</f>
+        <f t="shared" ref="C75" si="13">A75&amp;": "&amp;B75</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3777,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77" si="13">A77&amp;": "&amp;B77</f>
+        <f t="shared" ref="C77" si="14">A77&amp;": "&amp;B77</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -3801,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ref="C78" si="14">A78&amp;": "&amp;B78</f>
+        <f t="shared" ref="C78" si="15">A78&amp;": "&amp;B78</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -3873,7 +3873,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ref="C81" si="15">A81&amp;": "&amp;B81</f>
+        <f t="shared" ref="C81" si="16">A81&amp;": "&amp;B81</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -3897,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ref="C82" si="16">A82&amp;": "&amp;B82</f>
+        <f t="shared" ref="C82" si="17">A82&amp;": "&amp;B82</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -3993,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ref="C86:C93" si="17">A86&amp;": "&amp;B86</f>
+        <f t="shared" ref="C86:C93" si="18">A86&amp;": "&amp;B86</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -4017,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4041,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -4065,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -4089,7 +4089,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -4113,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -4137,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -4161,7 +4161,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -4185,7 +4185,7 @@
         <v>6</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ref="C94" si="18">A94&amp;": "&amp;B94</f>
+        <f t="shared" ref="C94" si="19">A94&amp;": "&amp;B94</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="C95" t="str">
-        <f>A95&amp;": "&amp;B95</f>
+        <f t="shared" ref="C95:C106" si="20">A95&amp;": "&amp;B95</f>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -4233,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="str">
-        <f>A96&amp;": "&amp;B96</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="str">
-        <f>A97&amp;": "&amp;B97</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -4281,7 +4281,7 @@
         <v>6</v>
       </c>
       <c r="C98" t="str">
-        <f>A98&amp;": "&amp;B98</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -4305,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="C99" t="str">
-        <f>A99&amp;": "&amp;B99</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -4329,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="str">
-        <f>A100&amp;": "&amp;B100</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -4353,7 +4353,7 @@
         <v>6</v>
       </c>
       <c r="C101" t="str">
-        <f>A101&amp;": "&amp;B101</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -4377,7 +4377,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="str">
-        <f>A102&amp;": "&amp;B102</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -4401,7 +4401,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="str">
-        <f>A103&amp;": "&amp;B103</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -4425,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="str">
-        <f>A104&amp;": "&amp;B104</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -4449,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="str">
-        <f>A105&amp;": "&amp;B105</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -4473,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="C106" t="str">
-        <f>A106&amp;": "&amp;B106</f>
+        <f t="shared" si="20"/>
         <v>Finfish and Shellfish:  Oxygen and general water chemistry</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -4497,7 +4497,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" ref="C107" si="19">A107&amp;": "&amp;B107</f>
+        <f t="shared" ref="C107" si="21">A107&amp;": "&amp;B107</f>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -4521,7 +4521,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" ref="C108:C119" si="20">A108&amp;": "&amp;B108</f>
+        <f t="shared" ref="C108:C119" si="22">A108&amp;": "&amp;B108</f>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -4545,7 +4545,7 @@
         <v>8</v>
       </c>
       <c r="C109" s="8" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -4569,7 +4569,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -4593,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -4617,7 +4617,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -4641,7 +4641,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -4665,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -4689,7 +4689,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -4713,7 +4713,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -4761,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -4785,7 +4785,7 @@
         <v>8</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -4809,7 +4809,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" ref="C120:C121" si="21">A120&amp;": "&amp;B120</f>
+        <f t="shared" ref="C120:C121" si="23">A120&amp;": "&amp;B120</f>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -4833,7 +4833,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -4857,7 +4857,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" ref="C122" si="22">A122&amp;": "&amp;B122</f>
+        <f t="shared" ref="C122" si="24">A122&amp;": "&amp;B122</f>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -4881,7 +4881,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" ref="C123:C133" si="23">A123&amp;": "&amp;B123</f>
+        <f t="shared" ref="C123:C133" si="25">A123&amp;": "&amp;B123</f>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -4905,7 +4905,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -4929,7 +4929,7 @@
         <v>8</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -4953,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -4977,7 +4977,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -5001,7 +5001,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -5025,7 +5025,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -5049,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -5073,7 +5073,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Shellfish and Seaweeds:  Dealing with Ocean Acidification</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -5097,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -5121,7 +5121,7 @@
         <v>10</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -5145,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" ref="C134" si="24">A134&amp;": "&amp;B134</f>
+        <f t="shared" ref="C134" si="26">A134&amp;": "&amp;B134</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -5169,7 +5169,7 @@
         <v>10</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" ref="C135:C136" si="25">A135&amp;": "&amp;B135</f>
+        <f t="shared" ref="C135:C136" si="27">A135&amp;": "&amp;B135</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -5193,7 +5193,7 @@
         <v>10</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -5217,7 +5217,7 @@
         <v>10</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" ref="C137:C138" si="26">A137&amp;": "&amp;B137</f>
+        <f t="shared" ref="C137:C138" si="28">A137&amp;": "&amp;B137</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -5241,7 +5241,7 @@
         <v>10</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -5265,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" ref="C139:C141" si="27">A139&amp;": "&amp;B139</f>
+        <f t="shared" ref="C139:C141" si="29">A139&amp;": "&amp;B139</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -5289,7 +5289,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -5313,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -5337,7 +5337,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" ref="C142:C143" si="28">A142&amp;": "&amp;B142</f>
+        <f t="shared" ref="C142:C143" si="30">A142&amp;": "&amp;B142</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -5361,7 +5361,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -5385,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" ref="C144" si="29">A144&amp;": "&amp;B144</f>
+        <f t="shared" ref="C144" si="31">A144&amp;": "&amp;B144</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -5409,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" ref="C145" si="30">A145&amp;": "&amp;B145</f>
+        <f t="shared" ref="C145" si="32">A145&amp;": "&amp;B145</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -5433,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" ref="C146" si="31">A146&amp;": "&amp;B146</f>
+        <f t="shared" ref="C146" si="33">A146&amp;": "&amp;B146</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D146" s="3" t="s">
@@ -5457,7 +5457,7 @@
         <v>10</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" ref="C147:C148" si="32">A147&amp;": "&amp;B147</f>
+        <f t="shared" ref="C147:C148" si="34">A147&amp;": "&amp;B147</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -5481,7 +5481,7 @@
         <v>10</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D148" s="3" t="s">
@@ -5505,7 +5505,7 @@
         <v>10</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" ref="C149" si="33">A149&amp;": "&amp;B149</f>
+        <f t="shared" ref="C149" si="35">A149&amp;": "&amp;B149</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -5529,7 +5529,7 @@
         <v>10</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" ref="C150:C152" si="34">A150&amp;": "&amp;B150</f>
+        <f t="shared" ref="C150:C152" si="36">A150&amp;": "&amp;B150</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -5553,7 +5553,7 @@
         <v>10</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -5577,7 +5577,7 @@
         <v>10</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D152" s="3" t="s">
@@ -5601,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" ref="C153:C154" si="35">A153&amp;": "&amp;B153</f>
+        <f t="shared" ref="C153:C154" si="37">A153&amp;": "&amp;B153</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -5625,7 +5625,7 @@
         <v>10</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D154" s="3" t="s">
@@ -5649,7 +5649,7 @@
         <v>10</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" ref="C155:C156" si="36">A155&amp;": "&amp;B155</f>
+        <f t="shared" ref="C155:C156" si="38">A155&amp;": "&amp;B155</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D155" s="3" t="s">
@@ -5673,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D156" s="3" t="s">
@@ -5697,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" ref="C157" si="37">A157&amp;": "&amp;B157</f>
+        <f t="shared" ref="C157" si="39">A157&amp;": "&amp;B157</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D157" s="3" t="s">
@@ -5721,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" ref="C158" si="38">A158&amp;": "&amp;B158</f>
+        <f t="shared" ref="C158" si="40">A158&amp;": "&amp;B158</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -5745,7 +5745,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="str">
-        <f t="shared" ref="C159" si="39">A159&amp;": "&amp;B159</f>
+        <f t="shared" ref="C159" si="41">A159&amp;": "&amp;B159</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D159" s="3" t="s">
@@ -5769,7 +5769,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="str">
-        <f>A160&amp;": "&amp;B160</f>
+        <f t="shared" ref="C160:C182" si="42">A160&amp;": "&amp;B160</f>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D160" s="3" t="s">
@@ -5793,7 +5793,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="str">
-        <f>A161&amp;": "&amp;B161</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -5817,7 +5817,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="str">
-        <f>A162&amp;": "&amp;B162</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D162" s="3" t="s">
@@ -5841,7 +5841,7 @@
         <v>10</v>
       </c>
       <c r="C163" t="str">
-        <f>A163&amp;": "&amp;B163</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D163" s="3" t="s">
@@ -5865,7 +5865,7 @@
         <v>10</v>
       </c>
       <c r="C164" t="str">
-        <f>A164&amp;": "&amp;B164</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -5889,7 +5889,7 @@
         <v>10</v>
       </c>
       <c r="C165" t="str">
-        <f>A165&amp;": "&amp;B165</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D165" s="3" t="s">
@@ -5913,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="C166" t="str">
-        <f>A166&amp;": "&amp;B166</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D166" s="3" t="s">
@@ -5937,7 +5937,7 @@
         <v>10</v>
       </c>
       <c r="C167" t="str">
-        <f>A167&amp;": "&amp;B167</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D167" s="3" t="s">
@@ -5961,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="C168" t="str">
-        <f>A168&amp;": "&amp;B168</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D168" s="3" t="s">
@@ -5985,7 +5985,7 @@
         <v>10</v>
       </c>
       <c r="C169" t="str">
-        <f>A169&amp;": "&amp;B169</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D169" s="3" t="s">
@@ -6009,7 +6009,7 @@
         <v>10</v>
       </c>
       <c r="C170" t="str">
-        <f>A170&amp;": "&amp;B170</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D170" s="3" t="s">
@@ -6033,7 +6033,7 @@
         <v>10</v>
       </c>
       <c r="C171" t="str">
-        <f>A171&amp;": "&amp;B171</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D171" s="3" t="s">
@@ -6057,7 +6057,7 @@
         <v>10</v>
       </c>
       <c r="C172" t="str">
-        <f>A172&amp;": "&amp;B172</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -6081,7 +6081,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="str">
-        <f>A173&amp;": "&amp;B173</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D173" s="3" t="s">
@@ -6105,7 +6105,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="str">
-        <f>A174&amp;": "&amp;B174</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -6129,7 +6129,7 @@
         <v>10</v>
       </c>
       <c r="C175" t="str">
-        <f>A175&amp;": "&amp;B175</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D175" s="3" t="s">
@@ -6153,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="str">
-        <f>A176&amp;": "&amp;B176</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D176" s="3" t="s">
@@ -6177,7 +6177,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="str">
-        <f>A177&amp;": "&amp;B177</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D177" s="3" t="s">
@@ -6201,7 +6201,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="str">
-        <f>A178&amp;": "&amp;B178</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D178" s="3" t="s">
@@ -6225,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="C179" t="str">
-        <f>A179&amp;": "&amp;B179</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D179" s="3" t="s">
@@ -6249,7 +6249,7 @@
         <v>10</v>
       </c>
       <c r="C180" t="str">
-        <f>A180&amp;": "&amp;B180</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D180" s="3" t="s">
@@ -6273,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="C181" t="str">
-        <f>A181&amp;": "&amp;B181</f>
+        <f t="shared" si="42"/>
         <v>Seaweeds and Shellfish:  Nutrient and Plankton Availability</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -6297,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="C182" t="str">
-        <f>A182&amp;": "&amp;B182</f>
+        <f t="shared" si="42"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D182" s="3" t="s">
@@ -6321,7 +6321,7 @@
         <v>12</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" ref="C183" si="40">A183&amp;": "&amp;B183</f>
+        <f t="shared" ref="C183" si="43">A183&amp;": "&amp;B183</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D183" s="3" t="s">
@@ -6345,7 +6345,7 @@
         <v>12</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" ref="C184" si="41">A184&amp;": "&amp;B184</f>
+        <f t="shared" ref="C184" si="44">A184&amp;": "&amp;B184</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D184" s="3" t="s">
@@ -6369,7 +6369,7 @@
         <v>12</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" ref="C185" si="42">A185&amp;": "&amp;B185</f>
+        <f t="shared" ref="C185" si="45">A185&amp;": "&amp;B185</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D185" s="3" t="s">
@@ -6393,7 +6393,7 @@
         <v>12</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" ref="C186:C187" si="43">A186&amp;": "&amp;B186</f>
+        <f t="shared" ref="C186:C187" si="46">A186&amp;": "&amp;B186</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -6417,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D187" s="3" t="s">
@@ -6441,7 +6441,7 @@
         <v>12</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" ref="C188" si="44">A188&amp;": "&amp;B188</f>
+        <f t="shared" ref="C188" si="47">A188&amp;": "&amp;B188</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D188" s="3" t="s">
@@ -6465,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" ref="C189" si="45">A189&amp;": "&amp;B189</f>
+        <f t="shared" ref="C189" si="48">A189&amp;": "&amp;B189</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D189" s="3" t="s">
@@ -6489,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" ref="C190:C193" si="46">A190&amp;": "&amp;B190</f>
+        <f t="shared" ref="C190:C193" si="49">A190&amp;": "&amp;B190</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D190" s="3" t="s">
@@ -6513,7 +6513,7 @@
         <v>12</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D191" s="3" t="s">
@@ -6537,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D192" s="3" t="s">
@@ -6561,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D193" s="3" t="s">
@@ -6585,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" ref="C194" si="47">A194&amp;": "&amp;B194</f>
+        <f t="shared" ref="C194" si="50">A194&amp;": "&amp;B194</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D194" s="3" t="s">
@@ -6609,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="C195" t="str">
-        <f>A195&amp;": "&amp;B195</f>
+        <f t="shared" ref="C195:C200" si="51">A195&amp;": "&amp;B195</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D195" s="3" t="s">
@@ -6633,7 +6633,7 @@
         <v>12</v>
       </c>
       <c r="C196" t="str">
-        <f>A196&amp;": "&amp;B196</f>
+        <f t="shared" si="51"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D196" s="3" t="s">
@@ -6657,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="C197" t="str">
-        <f>A197&amp;": "&amp;B197</f>
+        <f t="shared" si="51"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -6681,7 +6681,7 @@
         <v>12</v>
       </c>
       <c r="C198" t="str">
-        <f>A198&amp;": "&amp;B198</f>
+        <f t="shared" si="51"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D198" s="3" t="s">
@@ -6705,7 +6705,7 @@
         <v>12</v>
       </c>
       <c r="C199" t="str">
-        <f>A199&amp;": "&amp;B199</f>
+        <f t="shared" si="51"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D199" s="3" t="s">
@@ -6729,7 +6729,7 @@
         <v>12</v>
       </c>
       <c r="C200" t="str">
-        <f>A200&amp;": "&amp;B200</f>
+        <f t="shared" si="51"/>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D200" s="3" t="s">
@@ -6753,7 +6753,7 @@
         <v>12</v>
       </c>
       <c r="C201" t="str">
-        <f t="shared" ref="C201:C202" si="48">A201&amp;": "&amp;B201</f>
+        <f t="shared" ref="C201:C202" si="52">A201&amp;": "&amp;B201</f>
         <v>Any Species Group:  Seafood Safety and Quality</v>
       </c>
       <c r="D201" s="3" t="s">
@@ -6777,7 +6777,7 @@
         <v>13</v>
       </c>
       <c r="C202" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D202" s="3" t="s">
@@ -6801,7 +6801,7 @@
         <v>13</v>
       </c>
       <c r="C203" t="str">
-        <f t="shared" ref="C203" si="49">A203&amp;": "&amp;B203</f>
+        <f t="shared" ref="C203" si="53">A203&amp;": "&amp;B203</f>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D203" s="3" t="s">
@@ -6825,7 +6825,7 @@
         <v>13</v>
       </c>
       <c r="C204" t="str">
-        <f t="shared" ref="C204" si="50">A204&amp;": "&amp;B204</f>
+        <f t="shared" ref="C204" si="54">A204&amp;": "&amp;B204</f>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D204" s="3" t="s">
@@ -6849,7 +6849,7 @@
         <v>13</v>
       </c>
       <c r="C205" t="str">
-        <f t="shared" ref="C205:C208" si="51">A205&amp;": "&amp;B205</f>
+        <f t="shared" ref="C205:C208" si="55">A205&amp;": "&amp;B205</f>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D205" s="3" t="s">
@@ -6873,7 +6873,7 @@
         <v>13</v>
       </c>
       <c r="C206" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D206" s="3" t="s">
@@ -6897,7 +6897,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D207" s="3" t="s">
@@ -6921,7 +6921,7 @@
         <v>13</v>
       </c>
       <c r="C208" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D208" s="3" t="s">
@@ -6945,7 +6945,7 @@
         <v>13</v>
       </c>
       <c r="C209" t="str">
-        <f t="shared" ref="C209:C211" si="52">A209&amp;": "&amp;B209</f>
+        <f t="shared" ref="C209:C211" si="56">A209&amp;": "&amp;B209</f>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D209" s="3" t="s">
@@ -6969,7 +6969,7 @@
         <v>13</v>
       </c>
       <c r="C210" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D210" s="3" t="s">
@@ -6993,7 +6993,7 @@
         <v>13</v>
       </c>
       <c r="C211" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D211" s="3" t="s">
@@ -7017,7 +7017,7 @@
         <v>13</v>
       </c>
       <c r="C212" t="str">
-        <f t="shared" ref="C212:C223" si="53">A212&amp;": "&amp;B212</f>
+        <f t="shared" ref="C212:C223" si="57">A212&amp;": "&amp;B212</f>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D212" s="3" t="s">
@@ -7041,7 +7041,7 @@
         <v>13</v>
       </c>
       <c r="C213" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D213" s="3" t="s">
@@ -7065,7 +7065,7 @@
         <v>13</v>
       </c>
       <c r="C214" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D214" s="3" t="s">
@@ -7089,7 +7089,7 @@
         <v>13</v>
       </c>
       <c r="C215" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D215" s="3" t="s">
@@ -7113,7 +7113,7 @@
         <v>13</v>
       </c>
       <c r="C216" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D216" s="3" t="s">
@@ -7137,7 +7137,7 @@
         <v>13</v>
       </c>
       <c r="C217" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D217" s="3" t="s">
@@ -7161,7 +7161,7 @@
         <v>13</v>
       </c>
       <c r="C218" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D218" s="3" t="s">
@@ -7185,7 +7185,7 @@
         <v>13</v>
       </c>
       <c r="C219" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D219" s="3" t="s">
@@ -7209,7 +7209,7 @@
         <v>13</v>
       </c>
       <c r="C220" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D220" s="3" t="s">
@@ -7233,7 +7233,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D221" s="3" t="s">
@@ -7257,7 +7257,7 @@
         <v>13</v>
       </c>
       <c r="C222" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D222" s="3" t="s">
@@ -7281,7 +7281,7 @@
         <v>13</v>
       </c>
       <c r="C223" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D223" s="3" t="s">
@@ -7305,7 +7305,7 @@
         <v>13</v>
       </c>
       <c r="C224" t="str">
-        <f t="shared" ref="C224:C228" si="54">A224&amp;": "&amp;B224</f>
+        <f t="shared" ref="C224:C228" si="58">A224&amp;": "&amp;B224</f>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D224" s="3" t="s">
@@ -7329,7 +7329,7 @@
         <v>13</v>
       </c>
       <c r="C225" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>Any Species Group:  Dealing with changes in growth and survival</v>
       </c>
       <c r="D225" s="3" t="s">
@@ -7353,7 +7353,7 @@
         <v>14</v>
       </c>
       <c r="C226" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D226" s="3" t="s">
@@ -7377,7 +7377,7 @@
         <v>14</v>
       </c>
       <c r="C227" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D227" s="3" t="s">
@@ -7401,7 +7401,7 @@
         <v>14</v>
       </c>
       <c r="C228" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D228" s="3" t="s">
@@ -7425,7 +7425,7 @@
         <v>14</v>
       </c>
       <c r="C229" t="str">
-        <f t="shared" ref="C229" si="55">A229&amp;": "&amp;B229</f>
+        <f t="shared" ref="C229" si="59">A229&amp;": "&amp;B229</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D229" s="3" t="s">
@@ -7449,7 +7449,7 @@
         <v>14</v>
       </c>
       <c r="C230" t="str">
-        <f t="shared" ref="C230:C231" si="56">A230&amp;": "&amp;B230</f>
+        <f t="shared" ref="C230:C231" si="60">A230&amp;": "&amp;B230</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D230" s="3" t="s">
@@ -7473,7 +7473,7 @@
         <v>14</v>
       </c>
       <c r="C231" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D231" s="3" t="s">
@@ -7497,7 +7497,7 @@
         <v>14</v>
       </c>
       <c r="C232" t="str">
-        <f t="shared" ref="C232" si="57">A232&amp;": "&amp;B232</f>
+        <f t="shared" ref="C232" si="61">A232&amp;": "&amp;B232</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D232" s="3" t="s">
@@ -7521,7 +7521,7 @@
         <v>14</v>
       </c>
       <c r="C233" t="str">
-        <f t="shared" ref="C233:C234" si="58">A233&amp;": "&amp;B233</f>
+        <f t="shared" ref="C233:C234" si="62">A233&amp;": "&amp;B233</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D233" s="3" t="s">
@@ -7545,7 +7545,7 @@
         <v>14</v>
       </c>
       <c r="C234" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D234" s="3" t="s">
@@ -7569,7 +7569,7 @@
         <v>14</v>
       </c>
       <c r="C235" t="str">
-        <f t="shared" ref="C235" si="59">A235&amp;": "&amp;B235</f>
+        <f t="shared" ref="C235" si="63">A235&amp;": "&amp;B235</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D235" s="3" t="s">
@@ -7593,7 +7593,7 @@
         <v>14</v>
       </c>
       <c r="C236" t="str">
-        <f t="shared" ref="C236" si="60">A236&amp;": "&amp;B236</f>
+        <f t="shared" ref="C236" si="64">A236&amp;": "&amp;B236</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D236" s="3" t="s">
@@ -7617,7 +7617,7 @@
         <v>14</v>
       </c>
       <c r="C237" t="str">
-        <f t="shared" ref="C237" si="61">A237&amp;": "&amp;B237</f>
+        <f t="shared" ref="C237" si="65">A237&amp;": "&amp;B237</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D237" s="3" t="s">
@@ -7641,7 +7641,7 @@
         <v>14</v>
       </c>
       <c r="C238" t="str">
-        <f t="shared" ref="C238:C240" si="62">A238&amp;": "&amp;B238</f>
+        <f t="shared" ref="C238:C240" si="66">A238&amp;": "&amp;B238</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D238" s="3" t="s">
@@ -7665,7 +7665,7 @@
         <v>14</v>
       </c>
       <c r="C239" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D239" s="3" t="s">
@@ -7689,7 +7689,7 @@
         <v>14</v>
       </c>
       <c r="C240" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D240" s="3" t="s">
@@ -7713,7 +7713,7 @@
         <v>14</v>
       </c>
       <c r="C241" t="str">
-        <f t="shared" ref="C241" si="63">A241&amp;": "&amp;B241</f>
+        <f t="shared" ref="C241" si="67">A241&amp;": "&amp;B241</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D241" s="3" t="s">
@@ -7737,7 +7737,7 @@
         <v>14</v>
       </c>
       <c r="C242" t="str">
-        <f t="shared" ref="C242:C256" si="64">A242&amp;": "&amp;B242</f>
+        <f t="shared" ref="C242:C256" si="68">A242&amp;": "&amp;B242</f>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D242" s="3" t="s">
@@ -7761,7 +7761,7 @@
         <v>14</v>
       </c>
       <c r="C243" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D243" s="3" t="s">
@@ -7785,7 +7785,7 @@
         <v>14</v>
       </c>
       <c r="C244" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D244" s="3" t="s">
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D245" s="3" t="s">
@@ -7833,7 +7833,7 @@
         <v>14</v>
       </c>
       <c r="C246" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D246" s="3" t="s">
@@ -7857,7 +7857,7 @@
         <v>14</v>
       </c>
       <c r="C247" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D247" s="3" t="s">
@@ -7881,7 +7881,7 @@
         <v>14</v>
       </c>
       <c r="C248" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D248" s="3" t="s">
@@ -7905,7 +7905,7 @@
         <v>14</v>
       </c>
       <c r="C249" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D249" s="3" t="s">
@@ -7929,7 +7929,7 @@
         <v>14</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D250" s="3" t="s">
@@ -7953,7 +7953,7 @@
         <v>14</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D251" s="3" t="s">
@@ -7977,7 +7977,7 @@
         <v>14</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D252" s="3" t="s">
@@ -8001,7 +8001,7 @@
         <v>14</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D253" s="3" t="s">
@@ -8025,7 +8025,7 @@
         <v>14</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D254" s="3" t="s">
@@ -8049,7 +8049,7 @@
         <v>14</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes in range of culture species</v>
       </c>
       <c r="D255" s="3" t="s">
@@ -8073,7 +8073,7 @@
         <v>15</v>
       </c>
       <c r="C256" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D256" s="3" t="s">
@@ -8097,7 +8097,7 @@
         <v>15</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" ref="C257:C258" si="65">A257&amp;": "&amp;B257</f>
+        <f t="shared" ref="C257:C258" si="69">A257&amp;": "&amp;B257</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D257" s="3" t="s">
@@ -8121,7 +8121,7 @@
         <v>15</v>
       </c>
       <c r="C258" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D258" s="3" t="s">
@@ -8145,7 +8145,7 @@
         <v>15</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" ref="C259:C261" si="66">A259&amp;": "&amp;B259</f>
+        <f t="shared" ref="C259:C261" si="70">A259&amp;": "&amp;B259</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D259" s="3" t="s">
@@ -8169,7 +8169,7 @@
         <v>15</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D260" s="3" t="s">
@@ -8193,7 +8193,7 @@
         <v>15</v>
       </c>
       <c r="C261" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D261" s="3" t="s">
@@ -8217,7 +8217,7 @@
         <v>15</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" ref="C262:C263" si="67">A262&amp;": "&amp;B262</f>
+        <f t="shared" ref="C262:C263" si="71">A262&amp;": "&amp;B262</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D262" s="3" t="s">
@@ -8241,7 +8241,7 @@
         <v>15</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D263" s="3" t="s">
@@ -8265,7 +8265,7 @@
         <v>15</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" ref="C264:C267" si="68">A264&amp;": "&amp;B264</f>
+        <f t="shared" ref="C264:C267" si="72">A264&amp;": "&amp;B264</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D264" s="3" t="s">
@@ -8289,7 +8289,7 @@
         <v>15</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D265" s="3" t="s">
@@ -8313,7 +8313,7 @@
         <v>15</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D266" s="3" t="s">
@@ -8337,7 +8337,7 @@
         <v>15</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D267" s="3" t="s">
@@ -8361,7 +8361,7 @@
         <v>15</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" ref="C268" si="69">A268&amp;": "&amp;B268</f>
+        <f t="shared" ref="C268" si="73">A268&amp;": "&amp;B268</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D268" s="3" t="s">
@@ -8385,7 +8385,7 @@
         <v>15</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" ref="C269" si="70">A269&amp;": "&amp;B269</f>
+        <f t="shared" ref="C269" si="74">A269&amp;": "&amp;B269</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D269" s="3" t="s">
@@ -8409,7 +8409,7 @@
         <v>15</v>
       </c>
       <c r="C270" t="str">
-        <f t="shared" ref="C270" si="71">A270&amp;": "&amp;B270</f>
+        <f t="shared" ref="C270" si="75">A270&amp;": "&amp;B270</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D270" s="3" t="s">
@@ -8433,7 +8433,7 @@
         <v>15</v>
       </c>
       <c r="C271" t="str">
-        <f t="shared" ref="C271:C272" si="72">A271&amp;": "&amp;B271</f>
+        <f t="shared" ref="C271:C272" si="76">A271&amp;": "&amp;B271</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D271" s="3" t="s">
@@ -8457,7 +8457,7 @@
         <v>15</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D272" s="3" t="s">
@@ -8481,7 +8481,7 @@
         <v>15</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" ref="C273:C274" si="73">A273&amp;": "&amp;B273</f>
+        <f t="shared" ref="C273:C274" si="77">A273&amp;": "&amp;B273</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D273" s="3" t="s">
@@ -8505,7 +8505,7 @@
         <v>15</v>
       </c>
       <c r="C274" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D274" s="3" t="s">
@@ -8529,7 +8529,7 @@
         <v>15</v>
       </c>
       <c r="C275" t="str">
-        <f t="shared" ref="C275:C276" si="74">A275&amp;": "&amp;B275</f>
+        <f t="shared" ref="C275:C276" si="78">A275&amp;": "&amp;B275</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D275" s="3" t="s">
@@ -8553,7 +8553,7 @@
         <v>15</v>
       </c>
       <c r="C276" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D276" s="3" t="s">
@@ -8577,7 +8577,7 @@
         <v>15</v>
       </c>
       <c r="C277" t="str">
-        <f t="shared" ref="C277" si="75">A277&amp;": "&amp;B277</f>
+        <f t="shared" ref="C277" si="79">A277&amp;": "&amp;B277</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D277" s="3" t="s">
@@ -8601,7 +8601,7 @@
         <v>15</v>
       </c>
       <c r="C278" t="str">
-        <f t="shared" ref="C278" si="76">A278&amp;": "&amp;B278</f>
+        <f t="shared" ref="C278" si="80">A278&amp;": "&amp;B278</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D278" s="3" t="s">
@@ -8625,7 +8625,7 @@
         <v>15</v>
       </c>
       <c r="C279" t="str">
-        <f t="shared" ref="C279" si="77">A279&amp;": "&amp;B279</f>
+        <f t="shared" ref="C279" si="81">A279&amp;": "&amp;B279</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D279" s="3" t="s">
@@ -8649,7 +8649,7 @@
         <v>15</v>
       </c>
       <c r="C280" t="str">
-        <f t="shared" ref="C280:C303" si="78">A280&amp;": "&amp;B280</f>
+        <f t="shared" ref="C280:C303" si="82">A280&amp;": "&amp;B280</f>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D280" s="3" t="s">
@@ -8673,7 +8673,7 @@
         <v>15</v>
       </c>
       <c r="C281" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D281" s="3" t="s">
@@ -8697,7 +8697,7 @@
         <v>15</v>
       </c>
       <c r="C282" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D282" s="3" t="s">
@@ -8721,7 +8721,7 @@
         <v>15</v>
       </c>
       <c r="C283" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D283" s="3" t="s">
@@ -8745,7 +8745,7 @@
         <v>15</v>
       </c>
       <c r="C284" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D284" s="3" t="s">
@@ -8769,7 +8769,7 @@
         <v>15</v>
       </c>
       <c r="C285" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D285" s="3" t="s">
@@ -8793,7 +8793,7 @@
         <v>15</v>
       </c>
       <c r="C286" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D286" s="3" t="s">
@@ -8817,7 +8817,7 @@
         <v>15</v>
       </c>
       <c r="C287" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D287" s="3" t="s">
@@ -8841,7 +8841,7 @@
         <v>15</v>
       </c>
       <c r="C288" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D288" s="3" t="s">
@@ -8865,7 +8865,7 @@
         <v>15</v>
       </c>
       <c r="C289" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D289" s="3" t="s">
@@ -8889,7 +8889,7 @@
         <v>15</v>
       </c>
       <c r="C290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D290" s="3" t="s">
@@ -8913,7 +8913,7 @@
         <v>15</v>
       </c>
       <c r="C291" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D291" s="3" t="s">
@@ -8937,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="C292" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D292" s="3" t="s">
@@ -8961,7 +8961,7 @@
         <v>15</v>
       </c>
       <c r="C293" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D293" s="3" t="s">
@@ -8985,7 +8985,7 @@
         <v>15</v>
       </c>
       <c r="C294" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D294" s="3" t="s">
@@ -9009,7 +9009,7 @@
         <v>15</v>
       </c>
       <c r="C295" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D295" s="3" t="s">
@@ -9033,7 +9033,7 @@
         <v>15</v>
       </c>
       <c r="C296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D296" s="3" t="s">
@@ -9057,7 +9057,7 @@
         <v>15</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D297" s="3" t="s">
@@ -9081,7 +9081,7 @@
         <v>15</v>
       </c>
       <c r="C298" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D298" s="3" t="s">
@@ -9105,7 +9105,7 @@
         <v>15</v>
       </c>
       <c r="C299" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D299" s="3" t="s">
@@ -9129,7 +9129,7 @@
         <v>15</v>
       </c>
       <c r="C300" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D300" s="3" t="s">
@@ -9153,7 +9153,7 @@
         <v>15</v>
       </c>
       <c r="C301" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with changes predators, pathogens, parasites and diseases</v>
       </c>
       <c r="D301" s="3" t="s">
@@ -9177,7 +9177,7 @@
         <v>16</v>
       </c>
       <c r="C302" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D302" s="3" t="s">
@@ -9201,7 +9201,7 @@
         <v>16</v>
       </c>
       <c r="C303" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D303" s="3" t="s">
@@ -9225,7 +9225,7 @@
         <v>16</v>
       </c>
       <c r="C304" t="str">
-        <f t="shared" ref="C304" si="79">A304&amp;": "&amp;B304</f>
+        <f t="shared" ref="C304" si="83">A304&amp;": "&amp;B304</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D304" s="3" t="s">
@@ -9249,7 +9249,7 @@
         <v>16</v>
       </c>
       <c r="C305" t="str">
-        <f t="shared" ref="C305:C306" si="80">A305&amp;": "&amp;B305</f>
+        <f t="shared" ref="C305:C306" si="84">A305&amp;": "&amp;B305</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D305" s="3" t="s">
@@ -9273,7 +9273,7 @@
         <v>16</v>
       </c>
       <c r="C306" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D306" s="3" t="s">
@@ -9297,7 +9297,7 @@
         <v>16</v>
       </c>
       <c r="C307" t="str">
-        <f t="shared" ref="C307:C308" si="81">A307&amp;": "&amp;B307</f>
+        <f t="shared" ref="C307:C308" si="85">A307&amp;": "&amp;B307</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D307" s="3" t="s">
@@ -9321,7 +9321,7 @@
         <v>16</v>
       </c>
       <c r="C308" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D308" s="3" t="s">
@@ -9345,7 +9345,7 @@
         <v>16</v>
       </c>
       <c r="C309" t="str">
-        <f t="shared" ref="C309" si="82">A309&amp;": "&amp;B309</f>
+        <f t="shared" ref="C309" si="86">A309&amp;": "&amp;B309</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D309" s="3" t="s">
@@ -9369,7 +9369,7 @@
         <v>16</v>
       </c>
       <c r="C310" t="str">
-        <f t="shared" ref="C310:C312" si="83">A310&amp;": "&amp;B310</f>
+        <f t="shared" ref="C310:C312" si="87">A310&amp;": "&amp;B310</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D310" s="3" t="s">
@@ -9393,7 +9393,7 @@
         <v>16</v>
       </c>
       <c r="C311" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D311" s="3" t="s">
@@ -9417,7 +9417,7 @@
         <v>16</v>
       </c>
       <c r="C312" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D312" s="3" t="s">
@@ -9441,7 +9441,7 @@
         <v>16</v>
       </c>
       <c r="C313" t="str">
-        <f t="shared" ref="C313" si="84">A313&amp;": "&amp;B313</f>
+        <f t="shared" ref="C313" si="88">A313&amp;": "&amp;B313</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D313" s="3" t="s">
@@ -9465,7 +9465,7 @@
         <v>16</v>
       </c>
       <c r="C314" t="str">
-        <f t="shared" ref="C314:C315" si="85">A314&amp;": "&amp;B314</f>
+        <f t="shared" ref="C314:C315" si="89">A314&amp;": "&amp;B314</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D314" s="3" t="s">
@@ -9489,7 +9489,7 @@
         <v>16</v>
       </c>
       <c r="C315" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D315" s="3" t="s">
@@ -9513,7 +9513,7 @@
         <v>16</v>
       </c>
       <c r="C316" t="str">
-        <f t="shared" ref="C316" si="86">A316&amp;": "&amp;B316</f>
+        <f t="shared" ref="C316" si="90">A316&amp;": "&amp;B316</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D316" s="3" t="s">
@@ -9537,7 +9537,7 @@
         <v>16</v>
       </c>
       <c r="C317" t="str">
-        <f t="shared" ref="C317:C318" si="87">A317&amp;": "&amp;B317</f>
+        <f t="shared" ref="C317:C318" si="91">A317&amp;": "&amp;B317</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D317" s="3" t="s">
@@ -9561,7 +9561,7 @@
         <v>16</v>
       </c>
       <c r="C318" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D318" s="3" t="s">
@@ -9585,7 +9585,7 @@
         <v>16</v>
       </c>
       <c r="C319" t="str">
-        <f t="shared" ref="C319" si="88">A319&amp;": "&amp;B319</f>
+        <f t="shared" ref="C319" si="92">A319&amp;": "&amp;B319</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D319" s="3" t="s">
@@ -9609,7 +9609,7 @@
         <v>16</v>
       </c>
       <c r="C320" t="str">
-        <f t="shared" ref="C320:C321" si="89">A320&amp;": "&amp;B320</f>
+        <f t="shared" ref="C320:C321" si="93">A320&amp;": "&amp;B320</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D320" s="3" t="s">
@@ -9633,7 +9633,7 @@
         <v>16</v>
       </c>
       <c r="C321" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D321" s="3" t="s">
@@ -9657,7 +9657,7 @@
         <v>16</v>
       </c>
       <c r="C322" t="str">
-        <f t="shared" ref="C322" si="90">A322&amp;": "&amp;B322</f>
+        <f t="shared" ref="C322" si="94">A322&amp;": "&amp;B322</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D322" s="3" t="s">
@@ -9681,7 +9681,7 @@
         <v>16</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" ref="C323" si="91">A323&amp;": "&amp;B323</f>
+        <f t="shared" ref="C323" si="95">A323&amp;": "&amp;B323</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D323" s="3" t="s">
@@ -9705,7 +9705,7 @@
         <v>16</v>
       </c>
       <c r="C324" t="str">
-        <f t="shared" ref="C324:C325" si="92">A324&amp;": "&amp;B324</f>
+        <f t="shared" ref="C324:C325" si="96">A324&amp;": "&amp;B324</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D324" s="3" t="s">
@@ -9729,7 +9729,7 @@
         <v>16</v>
       </c>
       <c r="C325" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D325" s="3" t="s">
@@ -9753,7 +9753,7 @@
         <v>16</v>
       </c>
       <c r="C326" t="str">
-        <f t="shared" ref="C326" si="93">A326&amp;": "&amp;B326</f>
+        <f t="shared" ref="C326" si="97">A326&amp;": "&amp;B326</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D326" s="3" t="s">
@@ -9777,7 +9777,7 @@
         <v>16</v>
       </c>
       <c r="C327" t="str">
-        <f t="shared" ref="C327:C350" si="94">A327&amp;": "&amp;B327</f>
+        <f t="shared" ref="C327:C350" si="98">A327&amp;": "&amp;B327</f>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D327" s="3" t="s">
@@ -9801,7 +9801,7 @@
         <v>16</v>
       </c>
       <c r="C328" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D328" s="3" t="s">
@@ -9825,7 +9825,7 @@
         <v>16</v>
       </c>
       <c r="C329" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D329" s="3" t="s">
@@ -9849,7 +9849,7 @@
         <v>16</v>
       </c>
       <c r="C330" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D330" s="3" t="s">
@@ -9873,7 +9873,7 @@
         <v>16</v>
       </c>
       <c r="C331" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D331" s="3" t="s">
@@ -9897,7 +9897,7 @@
         <v>16</v>
       </c>
       <c r="C332" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D332" s="3" t="s">
@@ -9921,7 +9921,7 @@
         <v>16</v>
       </c>
       <c r="C333" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D333" s="3" t="s">
@@ -9945,7 +9945,7 @@
         <v>16</v>
       </c>
       <c r="C334" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D334" s="3" t="s">
@@ -9969,7 +9969,7 @@
         <v>16</v>
       </c>
       <c r="C335" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D335" s="3" t="s">
@@ -9993,7 +9993,7 @@
         <v>16</v>
       </c>
       <c r="C336" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D336" s="3" t="s">
@@ -10017,7 +10017,7 @@
         <v>16</v>
       </c>
       <c r="C337" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D337" s="3" t="s">
@@ -10041,7 +10041,7 @@
         <v>16</v>
       </c>
       <c r="C338" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D338" s="3" t="s">
@@ -10065,7 +10065,7 @@
         <v>16</v>
       </c>
       <c r="C339" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D339" s="3" t="s">
@@ -10089,7 +10089,7 @@
         <v>16</v>
       </c>
       <c r="C340" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D340" s="3" t="s">
@@ -10113,7 +10113,7 @@
         <v>16</v>
       </c>
       <c r="C341" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D341" s="3" t="s">
@@ -10137,7 +10137,7 @@
         <v>16</v>
       </c>
       <c r="C342" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D342" s="3" t="s">
@@ -10161,7 +10161,7 @@
         <v>16</v>
       </c>
       <c r="C343" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D343" s="3" t="s">
@@ -10185,7 +10185,7 @@
         <v>16</v>
       </c>
       <c r="C344" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D344" s="3" t="s">
@@ -10209,7 +10209,7 @@
         <v>16</v>
       </c>
       <c r="C345" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D345" s="3" t="s">
@@ -10233,7 +10233,7 @@
         <v>16</v>
       </c>
       <c r="C346" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D346" s="3" t="s">
@@ -10257,7 +10257,7 @@
         <v>16</v>
       </c>
       <c r="C347" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D347" s="3" t="s">
@@ -10281,7 +10281,7 @@
         <v>16</v>
       </c>
       <c r="C348" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D348" s="3" t="s">
@@ -10305,7 +10305,7 @@
         <v>16</v>
       </c>
       <c r="C349" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Dealing with Catastrophic Events</v>
       </c>
       <c r="D349" s="3" t="s">
@@ -10329,7 +10329,7 @@
         <v>17</v>
       </c>
       <c r="C350" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D350" s="3" t="s">
@@ -10353,7 +10353,7 @@
         <v>17</v>
       </c>
       <c r="C351" t="str">
-        <f t="shared" ref="C351:C353" si="95">A351&amp;": "&amp;B351</f>
+        <f t="shared" ref="C351:C353" si="99">A351&amp;": "&amp;B351</f>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D351" s="3" t="s">
@@ -10377,7 +10377,7 @@
         <v>17</v>
       </c>
       <c r="C352" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D352" s="3" t="s">
@@ -10401,7 +10401,7 @@
         <v>17</v>
       </c>
       <c r="C353" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D353" s="3" t="s">
@@ -10425,7 +10425,7 @@
         <v>17</v>
       </c>
       <c r="C354" t="str">
-        <f t="shared" ref="C354" si="96">A354&amp;": "&amp;B354</f>
+        <f t="shared" ref="C354" si="100">A354&amp;": "&amp;B354</f>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D354" s="3" t="s">
@@ -10449,7 +10449,7 @@
         <v>17</v>
       </c>
       <c r="C355" t="str">
-        <f t="shared" ref="C355:C356" si="97">A355&amp;": "&amp;B355</f>
+        <f t="shared" ref="C355:C356" si="101">A355&amp;": "&amp;B355</f>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D355" s="3" t="s">
@@ -10473,7 +10473,7 @@
         <v>17</v>
       </c>
       <c r="C356" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D356" s="3" t="s">
@@ -10497,7 +10497,7 @@
         <v>17</v>
       </c>
       <c r="C357" t="str">
-        <f t="shared" ref="C357" si="98">A357&amp;": "&amp;B357</f>
+        <f t="shared" ref="C357" si="102">A357&amp;": "&amp;B357</f>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D357" s="3" t="s">
@@ -10521,7 +10521,7 @@
         <v>17</v>
       </c>
       <c r="C358" t="str">
-        <f t="shared" ref="C358:C365" si="99">A358&amp;": "&amp;B358</f>
+        <f t="shared" ref="C358:C365" si="103">A358&amp;": "&amp;B358</f>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D358" s="3" t="s">
@@ -10545,7 +10545,7 @@
         <v>17</v>
       </c>
       <c r="C359" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D359" s="3" t="s">
@@ -10569,7 +10569,7 @@
         <v>17</v>
       </c>
       <c r="C360" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D360" s="3" t="s">
@@ -10593,7 +10593,7 @@
         <v>17</v>
       </c>
       <c r="C361" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D361" s="3" t="s">
@@ -10617,7 +10617,7 @@
         <v>17</v>
       </c>
       <c r="C362" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D362" s="3" t="s">
@@ -10641,7 +10641,7 @@
         <v>17</v>
       </c>
       <c r="C363" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Distribution of wild broodstock and naturalspawn timing</v>
       </c>
       <c r="D363" s="3" t="s">
@@ -10665,7 +10665,7 @@
         <v>18</v>
       </c>
       <c r="C364" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D364" s="3" t="s">
@@ -10689,7 +10689,7 @@
         <v>18</v>
       </c>
       <c r="C365" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D365" s="3" t="s">
@@ -10713,7 +10713,7 @@
         <v>18</v>
       </c>
       <c r="C366" t="str">
-        <f t="shared" ref="C366:C367" si="100">A366&amp;": "&amp;B366</f>
+        <f t="shared" ref="C366:C367" si="104">A366&amp;": "&amp;B366</f>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D366" s="3" t="s">
@@ -10737,7 +10737,7 @@
         <v>18</v>
       </c>
       <c r="C367" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D367" s="3" t="s">
@@ -10761,7 +10761,7 @@
         <v>18</v>
       </c>
       <c r="C368" t="str">
-        <f t="shared" ref="C368" si="101">A368&amp;": "&amp;B368</f>
+        <f t="shared" ref="C368" si="105">A368&amp;": "&amp;B368</f>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D368" s="3" t="s">
@@ -10785,7 +10785,7 @@
         <v>18</v>
       </c>
       <c r="C369" t="str">
-        <f t="shared" ref="C369:C370" si="102">A369&amp;": "&amp;B369</f>
+        <f t="shared" ref="C369:C370" si="106">A369&amp;": "&amp;B369</f>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D369" s="3" t="s">
@@ -10809,7 +10809,7 @@
         <v>18</v>
       </c>
       <c r="C370" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D370" s="3" t="s">
@@ -10833,7 +10833,7 @@
         <v>18</v>
       </c>
       <c r="C371" t="str">
-        <f t="shared" ref="C371" si="103">A371&amp;": "&amp;B371</f>
+        <f t="shared" ref="C371" si="107">A371&amp;": "&amp;B371</f>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D371" s="3" t="s">
@@ -10857,7 +10857,7 @@
         <v>18</v>
       </c>
       <c r="C372" t="str">
-        <f t="shared" ref="C372:C373" si="104">A372&amp;": "&amp;B372</f>
+        <f t="shared" ref="C372:C373" si="108">A372&amp;": "&amp;B372</f>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D372" s="3" t="s">
@@ -10881,7 +10881,7 @@
         <v>18</v>
       </c>
       <c r="C373" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D373" s="3" t="s">
@@ -10905,7 +10905,7 @@
         <v>18</v>
       </c>
       <c r="C374" t="str">
-        <f t="shared" ref="C374:C387" si="105">A374&amp;": "&amp;B374</f>
+        <f t="shared" ref="C374:C387" si="109">A374&amp;": "&amp;B374</f>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D374" s="3" t="s">
@@ -10929,7 +10929,7 @@
         <v>18</v>
       </c>
       <c r="C375" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D375" s="3" t="s">
@@ -10953,7 +10953,7 @@
         <v>18</v>
       </c>
       <c r="C376" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D376" s="3" t="s">
@@ -10977,7 +10977,7 @@
         <v>18</v>
       </c>
       <c r="C377" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D377" s="3" t="s">
@@ -11001,7 +11001,7 @@
         <v>18</v>
       </c>
       <c r="C378" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D378" s="3" t="s">
@@ -11025,7 +11025,7 @@
         <v>18</v>
       </c>
       <c r="C379" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D379" s="3" t="s">
@@ -11049,7 +11049,7 @@
         <v>18</v>
       </c>
       <c r="C380" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D380" s="3" t="s">
@@ -11073,7 +11073,7 @@
         <v>18</v>
       </c>
       <c r="C381" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D381" s="3" t="s">
@@ -11097,7 +11097,7 @@
         <v>18</v>
       </c>
       <c r="C382" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D382" s="3" t="s">
@@ -11121,7 +11121,7 @@
         <v>18</v>
       </c>
       <c r="C383" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D383" s="3" t="s">
@@ -11145,7 +11145,7 @@
         <v>18</v>
       </c>
       <c r="C384" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D384" s="3" t="s">
@@ -11169,7 +11169,7 @@
         <v>18</v>
       </c>
       <c r="C385" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D385" s="3" t="s">
@@ -11193,7 +11193,7 @@
         <v>18</v>
       </c>
       <c r="C386" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D386" s="3" t="s">
@@ -11217,7 +11217,7 @@
         <v>18</v>
       </c>
       <c r="C387" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>Any Species Group:  Dealing with changes in Habitat suitability</v>
       </c>
       <c r="D387" s="3" t="s">
@@ -11242,8 +11242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAF799-2ACA-D54F-B704-D8118DD75716}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11289,7 +11289,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>A2&amp;": "&amp;B2</f>
+        <f t="shared" ref="C2:C27" si="0">A2&amp;": "&amp;B2</f>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -11313,7 +11313,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>A3&amp;": "&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -11337,7 +11337,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>A4&amp;": "&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -11361,7 +11361,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>A5&amp;": "&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -11385,7 +11385,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>A6&amp;": "&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -11409,7 +11409,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>A7&amp;": "&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -11433,7 +11433,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>A8&amp;": "&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -11457,7 +11457,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>A9&amp;": "&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -11481,7 +11481,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>A10&amp;": "&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -11505,7 +11505,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>A11&amp;": "&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -11529,7 +11529,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>A12&amp;": "&amp;B12</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -11553,7 +11553,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>A13&amp;": "&amp;B13</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -11577,7 +11577,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>A14&amp;": "&amp;B14</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -11601,7 +11601,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>A15&amp;": "&amp;B15</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Structural reform of governance system</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -11625,7 +11625,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>A16&amp;": "&amp;B16</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -11649,7 +11649,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>A17&amp;": "&amp;B17</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -11673,7 +11673,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>A18&amp;": "&amp;B18</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -11697,7 +11697,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>A19&amp;": "&amp;B19</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -11721,7 +11721,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>A20&amp;": "&amp;B20</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -11745,7 +11745,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>A21&amp;": "&amp;B21</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -11769,7 +11769,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>A22&amp;": "&amp;B22</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -11793,7 +11793,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>A23&amp;": "&amp;B23</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -11817,7 +11817,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>A24&amp;": "&amp;B24</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -11841,7 +11841,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>A25&amp;": "&amp;B25</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -11865,7 +11865,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>A26&amp;": "&amp;B26</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -11889,7 +11889,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>A27&amp;": "&amp;B27</f>
+        <f t="shared" si="0"/>
         <v>Fisheries:  Targeted investments (by public or private sector)</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -11913,7 +11913,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>A22&amp;": "&amp;B28</f>
+        <f t="shared" ref="C28:C39" si="1">A22&amp;": "&amp;B28</f>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -11937,7 +11937,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>A23&amp;": "&amp;B29</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -11961,7 +11961,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>A24&amp;": "&amp;B30</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -11985,7 +11985,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>A25&amp;": "&amp;B31</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -12009,7 +12009,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>A26&amp;": "&amp;B32</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -12033,7 +12033,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>A27&amp;": "&amp;B33</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -12057,7 +12057,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>A28&amp;": "&amp;B34</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -12081,7 +12081,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>A29&amp;": "&amp;B35</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -12105,7 +12105,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>A30&amp;": "&amp;B36</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -12129,7 +12129,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>A31&amp;": "&amp;B37</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -12153,7 +12153,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>A32&amp;": "&amp;B38</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -12177,7 +12177,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>A33&amp;": "&amp;B39</f>
+        <f t="shared" si="1"/>
         <v>Fisheries:  Capacity building/capacity reduction</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -12201,7 +12201,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>A27&amp;": "&amp;B40</f>
+        <f t="shared" ref="C40:C55" si="2">A27&amp;": "&amp;B40</f>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -12225,7 +12225,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>A28&amp;": "&amp;B41</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -12249,7 +12249,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>A29&amp;": "&amp;B42</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -12273,7 +12273,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>A30&amp;": "&amp;B43</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -12297,7 +12297,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>A31&amp;": "&amp;B44</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -12321,7 +12321,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>A32&amp;": "&amp;B45</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -12345,7 +12345,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>A33&amp;": "&amp;B46</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -12369,7 +12369,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>A34&amp;": "&amp;B47</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -12393,7 +12393,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>A35&amp;": "&amp;B48</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -12417,7 +12417,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>A36&amp;": "&amp;B49</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -12441,7 +12441,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>A37&amp;": "&amp;B50</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -12465,7 +12465,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>A38&amp;": "&amp;B51</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -12489,7 +12489,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>A39&amp;": "&amp;B52</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -12513,7 +12513,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>A40&amp;": "&amp;B53</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -12537,7 +12537,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>A41&amp;": "&amp;B54</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -12561,7 +12561,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>A42&amp;": "&amp;B55</f>
+        <f t="shared" si="2"/>
         <v>Fisheries:  Approaches to fisheries management</v>
       </c>
       <c r="D55" s="1" t="s">
